--- a/scenario.xlsx
+++ b/scenario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>utilsateur</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Ajouté un utilisateur</t>
+  </si>
+  <si>
+    <t>get('/article/affiche(params : id_article+id_users)')</t>
+  </si>
+  <si>
+    <t>get('/home(params :auth(all))')</t>
+  </si>
+  <si>
+    <t>get('/home(params :auth(auth))')</t>
   </si>
 </sst>
 </file>
@@ -186,28 +195,28 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +522,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="F16" sqref="F16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,12 +540,12 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -544,377 +553,377 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -924,12 +933,12 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -937,10 +946,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -950,299 +959,311 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="F48:I49"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="F38:I39"/>
-    <mergeCell ref="F40:I41"/>
-    <mergeCell ref="F42:I43"/>
-    <mergeCell ref="F44:I45"/>
-    <mergeCell ref="F46:I47"/>
-    <mergeCell ref="F24:I25"/>
-    <mergeCell ref="F26:I27"/>
-    <mergeCell ref="F28:I29"/>
-    <mergeCell ref="F30:I31"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="F18:I19"/>
-    <mergeCell ref="F20:I21"/>
-    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C34:E35"/>
+    <mergeCell ref="C36:E37"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="C64:E65"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="C62:E63"/>
     <mergeCell ref="A6:B19"/>
     <mergeCell ref="A20:B32"/>
     <mergeCell ref="F1:I2"/>
@@ -1253,43 +1274,31 @@
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I9"/>
     <mergeCell ref="F10:I11"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="C62:E63"/>
-    <mergeCell ref="C64:E65"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="C46:E47"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="C52:E53"/>
     <mergeCell ref="C30:E31"/>
     <mergeCell ref="C32:E33"/>
-    <mergeCell ref="C34:E35"/>
-    <mergeCell ref="C36:E37"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="C28:E29"/>
     <mergeCell ref="C8:E9"/>
     <mergeCell ref="C10:E11"/>
     <mergeCell ref="C12:E13"/>
     <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="F18:I19"/>
+    <mergeCell ref="F20:I21"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="F24:I25"/>
+    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="F28:I29"/>
+    <mergeCell ref="F30:I31"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="F48:I49"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="F40:I41"/>
+    <mergeCell ref="F42:I43"/>
+    <mergeCell ref="F44:I45"/>
+    <mergeCell ref="F46:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
